--- a/attendance-files/CB/CB Attendance - B.xlsx
+++ b/attendance-files/CB/CB Attendance - B.xlsx
@@ -22687,7 +22687,7 @@
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P89">
+  <conditionalFormatting sqref="G7:Z90">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
